--- a/biology/Zoologie/Dicotylichthys_punctulatus/Dicotylichthys_punctulatus.xlsx
+++ b/biology/Zoologie/Dicotylichthys_punctulatus/Dicotylichthys_punctulatus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dicotylichthys punctulatus est une espèce de poissons de l'ordre des Tetraodontiformes, appartenant à la famille des poissons porc-épic. C'est la seule espèce de son genre Dicotylichthys (monotypique).
 Comme l'ensemble des membres de cette famille, ces poissons possèdent la capacité de gonfler leur corps, qui est couvert d'épines, et leurs dents sont fusionnées en une structure ressemblant à un bec.
